--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="2020 Roster" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020 Roster'!$A$1:$T$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020 Roster'!$A$1:$T$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Kaspar</t>
   </si>
@@ -107,12 +107,6 @@
     <t>Moffa</t>
   </si>
   <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
     <t>Juliane</t>
   </si>
   <si>
@@ -131,12 +125,6 @@
     <t>Verweij</t>
   </si>
   <si>
-    <t>Simon</t>
-  </si>
-  <si>
-    <t>Wandel</t>
-  </si>
-  <si>
     <t>Hans Ulrich</t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>achim.guettner@novartis.com</t>
   </si>
   <si>
-    <t>amanda.ross@unibas.ch</t>
-  </si>
-  <si>
     <t>Swiss Tropical and Public Health Institute</t>
   </si>
   <si>
@@ -194,9 +179,6 @@
     <t>bibiana.blatna@novartis.com</t>
   </si>
   <si>
-    <t>dominik.heinzmann@roche.com</t>
-  </si>
-  <si>
     <t>fbrsorenson@googlemail.com</t>
   </si>
   <si>
@@ -224,9 +206,6 @@
     <t>roland.marion-gallois@bms.com</t>
   </si>
   <si>
-    <t>simon.wandel@novartis.com</t>
-  </si>
-  <si>
     <t>Olympia</t>
   </si>
   <si>
@@ -243,16 +222,48 @@
   </si>
   <si>
     <t>Function</t>
+  </si>
+  <si>
+    <t>Novo Nordisk</t>
+  </si>
+  <si>
+    <t>DMHM@novonordisk.com</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>tracy.glass@swisstph.ch</t>
+  </si>
+  <si>
+    <t>Hennessy</t>
+  </si>
+  <si>
+    <t>bhennes4@its.jnj.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,10 +286,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -289,8 +301,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,31 +620,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T39"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="101.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="101.5703125" style="3"/>
-    <col min="21" max="16384" width="101.5703125" style="1"/>
+    <col min="1" max="1" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="20" width="101.54296875" style="3"/>
+    <col min="21" max="16384" width="101.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -637,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -654,333 +670,334 @@
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:T39">
@@ -988,10 +1005,12 @@
     <sortCondition ref="A2:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D19" r:id="rId2"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D17" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D19" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schaej17\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,9 +158,6 @@
     <t>University of Basel</t>
   </si>
   <si>
-    <t>Celgene</t>
-  </si>
-  <si>
     <t>Idorsia Pharmaceuticals Ltd</t>
   </si>
   <si>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>bhennes4@its.jnj.com</t>
+  </si>
+  <si>
+    <t>BMS</t>
   </si>
 </sst>
 </file>
@@ -623,28 +623,28 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="101.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="101.54296875" style="3"/>
-    <col min="21" max="16384" width="101.54296875" style="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="20" width="101.5703125" style="3"/>
+    <col min="21" max="16384" width="101.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -653,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -688,17 +688,17 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -709,7 +709,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -730,14 +730,14 @@
         <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -758,7 +758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -769,14 +769,14 @@
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -804,14 +804,14 @@
         <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -822,14 +822,14 @@
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +847,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -858,14 +858,14 @@
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -876,14 +876,14 @@
         <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -891,17 +891,17 @@
         <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -909,92 +909,92 @@
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>

--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Kaspar</t>
   </si>
@@ -221,12 +221,6 @@
     <t>Function</t>
   </si>
   <si>
-    <t>Novo Nordisk</t>
-  </si>
-  <si>
-    <t>DMHM@novonordisk.com</t>
-  </si>
-  <si>
     <t>Tracy</t>
   </si>
   <si>
@@ -246,6 +240,9 @@
   </si>
   <si>
     <t>BMS</t>
+  </si>
+  <si>
+    <t>dominik.heinzmann@roche.com</t>
   </si>
 </sst>
 </file>
@@ -623,7 +620,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +685,10 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -909,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>57</v>
@@ -957,16 +954,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -974,16 +971,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>

--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Kaspar</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Novartis Pharma AG</t>
   </si>
   <si>
-    <t>Actelion Pharmaceuticals Ltd</t>
-  </si>
-  <si>
     <t>University of Basel</t>
   </si>
   <si>
@@ -243,6 +240,30 @@
   </si>
   <si>
     <t>dominik.heinzmann@roche.com</t>
+  </si>
+  <si>
+    <t>Dominic</t>
+  </si>
+  <si>
+    <t>Magirr</t>
+  </si>
+  <si>
+    <t>dominic.magirr@novartis.com</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Ziegler</t>
+  </si>
+  <si>
+    <t>andreas.ziegler@medizincampus-davos.ch</t>
+  </si>
+  <si>
+    <t>Cardio-CARE, Medizincampus Davos</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson Innovative Medicine</t>
   </si>
 </sst>
 </file>
@@ -620,7 +641,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +659,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -650,13 +671,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -688,7 +709,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -706,7 +727,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -724,10 +745,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -751,9 +772,6 @@
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="3" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -766,7 +784,7 @@
         <v>34</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -798,15 +816,18 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
       </c>
       <c r="F9" s="1"/>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -819,7 +840,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -852,10 +873,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -870,10 +891,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -888,10 +909,10 @@
         <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -906,10 +927,10 @@
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -918,35 +939,35 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -954,16 +975,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -971,18 +992,52 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="E19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1006,8 +1061,10 @@
     <hyperlink ref="D17" r:id="rId2"/>
     <hyperlink ref="D3" r:id="rId3"/>
     <hyperlink ref="D19" r:id="rId4"/>
+    <hyperlink ref="D20" r:id="rId5"/>
+    <hyperlink ref="D21" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B647142-B909-4AAE-BBB6-FE89DF274460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22140" windowHeight="9630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Roster" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Kaspar</t>
   </si>
@@ -38,9 +39,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>kaspar.rufibach@roche.com</t>
-  </si>
-  <si>
     <t>former</t>
   </si>
   <si>
@@ -134,9 +132,6 @@
     <t>F. Hoffmann-La Roche Ltd</t>
   </si>
   <si>
-    <t>President</t>
-  </si>
-  <si>
     <t>Treasurer</t>
   </si>
   <si>
@@ -191,9 +186,6 @@
     <t>marco.cattaneo@usb.ch</t>
   </si>
   <si>
-    <t>mbacchi@its.jnj.com</t>
-  </si>
-  <si>
     <t>pierre.verweij@idorsia.com</t>
   </si>
   <si>
@@ -264,13 +256,64 @@
   </si>
   <si>
     <t>Johnson &amp; Johnson Innovative Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President 2024 - </t>
+  </si>
+  <si>
+    <t>Former President 2015-2023</t>
+  </si>
+  <si>
+    <t>kaspar.rufibach@gmail.com</t>
+  </si>
+  <si>
+    <t>Merck KGaA</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>UCB</t>
+  </si>
+  <si>
+    <t>YouYou</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>youyou.hu@roche.com</t>
+  </si>
+  <si>
+    <t>NextGen representative</t>
+  </si>
+  <si>
+    <t>Baldur</t>
+  </si>
+  <si>
+    <t>Magnusson</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Kuipers</t>
+  </si>
+  <si>
+    <t>ETH D-BSSE</t>
+  </si>
+  <si>
+    <t>Kristina</t>
+  </si>
+  <si>
+    <t>Weber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +328,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,24 +357,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,160 +686,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="20" width="101.5703125" style="3"/>
+    <col min="5" max="5" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.85546875" style="2" customWidth="1"/>
+    <col min="8" max="20" width="101.5703125" style="2"/>
     <col min="21" max="16384" width="101.5703125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -799,270 +846,317 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
+        <v>79</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T39">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T39">
     <sortCondition descending="1" ref="E2:E39"/>
     <sortCondition ref="A2:A39"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D17" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D19" r:id="rId4"/>
-    <hyperlink ref="D20" r:id="rId5"/>
-    <hyperlink ref="D21" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/data/roster.xlsx
+++ b/data/roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\70_Service\BBS\webpage\home\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/widmelu1/Documents/git/bbs-basel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B647142-B909-4AAE-BBB6-FE89DF274460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76712A-E3B6-124C-9952-32CF8E1FFA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="77820" yWindow="4260" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020 Roster" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>Kaspar</t>
   </si>
@@ -276,15 +276,6 @@
     <t>UCB</t>
   </si>
   <si>
-    <t>YouYou</t>
-  </si>
-  <si>
-    <t>Hu</t>
-  </si>
-  <si>
-    <t>youyou.hu@roche.com</t>
-  </si>
-  <si>
     <t>NextGen representative</t>
   </si>
   <si>
@@ -307,6 +298,18 @@
   </si>
   <si>
     <t>Weber</t>
+  </si>
+  <si>
+    <t>Ottavia</t>
+  </si>
+  <si>
+    <t>Prunas</t>
+  </si>
+  <si>
+    <t>ottavia.prunas@unibas.ch</t>
+  </si>
+  <si>
+    <t>University Hospital of Basel</t>
   </si>
 </sst>
 </file>
@@ -374,8 +377,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,23 +694,23 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="101.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="101.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="100.85546875" style="2" customWidth="1"/>
-    <col min="8" max="20" width="101.5703125" style="2"/>
-    <col min="21" max="16384" width="101.5703125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="100.83203125" style="2" customWidth="1"/>
+    <col min="8" max="20" width="101.5" style="2"/>
+    <col min="21" max="16384" width="101.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -730,7 +733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -747,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -764,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -784,7 +787,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -801,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -821,7 +824,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -838,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -875,7 +878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -895,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -912,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -929,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -943,7 +946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -960,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -977,7 +980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -995,7 +998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>62</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>71</v>
       </c>
@@ -1083,32 +1086,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>81</v>
@@ -1117,26 +1120,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
